--- a/static/upload/Database master/2.waste group master list.xlsx
+++ b/static/upload/Database master/2.waste group master list.xlsx
@@ -101,7 +101,7 @@
     <t>group_name</t>
   </si>
   <si>
-    <t>Group 1-1 Packaging/</t>
+    <t>Group 1-1 Packaging</t>
   </si>
 </sst>
 </file>
